--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H2">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I2">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J2">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>27939.44512215171</v>
+        <v>41670.40456813417</v>
       </c>
       <c r="R2">
-        <v>27939.44512215171</v>
+        <v>375033.6411132074</v>
       </c>
       <c r="S2">
-        <v>0.1123468254229924</v>
+        <v>0.1344528337827922</v>
       </c>
       <c r="T2">
-        <v>0.1123468254229924</v>
+        <v>0.1611601177627457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H3">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I3">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J3">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>31291.25659586832</v>
+        <v>44593.3349772939</v>
       </c>
       <c r="R3">
-        <v>31291.25659586832</v>
+        <v>401340.0147956451</v>
       </c>
       <c r="S3">
-        <v>0.125824737272783</v>
+        <v>0.1438838983605034</v>
       </c>
       <c r="T3">
-        <v>0.125824737272783</v>
+        <v>0.1724645390620944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H4">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I4">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J4">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>16098.50540253839</v>
+        <v>22391.77031992572</v>
       </c>
       <c r="R4">
-        <v>16098.50540253839</v>
+        <v>201525.9328793315</v>
       </c>
       <c r="S4">
-        <v>0.06473342502411132</v>
+        <v>0.0722488059362328</v>
       </c>
       <c r="T4">
-        <v>0.06473342502411132</v>
+        <v>0.08660007933868649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H5">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I5">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J5">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>19152.69449787478</v>
+        <v>25582.74482269822</v>
       </c>
       <c r="R5">
-        <v>19152.69449787478</v>
+        <v>230244.7034042839</v>
       </c>
       <c r="S5">
-        <v>0.07701457261320632</v>
+        <v>0.08254473583835059</v>
       </c>
       <c r="T5">
-        <v>0.07701457261320632</v>
+        <v>0.09894116006431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.785832210144</v>
+        <v>301.48083</v>
       </c>
       <c r="H6">
-        <v>225.785832210144</v>
+        <v>904.44249</v>
       </c>
       <c r="I6">
-        <v>0.5318881183946984</v>
+        <v>0.5977744084099033</v>
       </c>
       <c r="J6">
-        <v>0.5318881183946984</v>
+        <v>0.6507315779475966</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>37792.94316745149</v>
+        <v>51027.46815389927</v>
       </c>
       <c r="R6">
-        <v>37792.94316745149</v>
+        <v>306164.8089233956</v>
       </c>
       <c r="S6">
-        <v>0.1519685580616053</v>
+        <v>0.1646441344920243</v>
       </c>
       <c r="T6">
-        <v>0.1519685580616053</v>
+        <v>0.13156568171976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H7">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J7">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>9226.233852418864</v>
+        <v>10836.44433999635</v>
       </c>
       <c r="R7">
-        <v>9226.233852418864</v>
+        <v>97527.99905996711</v>
       </c>
       <c r="S7">
-        <v>0.03709945130970366</v>
+        <v>0.03496463892640453</v>
       </c>
       <c r="T7">
-        <v>0.03709945130970366</v>
+        <v>0.04190990378093771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H8">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J8">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>10333.07746905216</v>
+        <v>11596.55629515513</v>
       </c>
       <c r="R8">
-        <v>10333.07746905216</v>
+        <v>104369.0066563962</v>
       </c>
       <c r="S8">
-        <v>0.04155016126563849</v>
+        <v>0.03741719986077642</v>
       </c>
       <c r="T8">
-        <v>0.04155016126563849</v>
+        <v>0.04484963363179542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H9">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J9">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>5316.088951261495</v>
+        <v>5823.0097658186</v>
       </c>
       <c r="R9">
-        <v>5316.088951261495</v>
+        <v>52407.0878923674</v>
       </c>
       <c r="S9">
-        <v>0.02137643445420287</v>
+        <v>0.01878839843945005</v>
       </c>
       <c r="T9">
-        <v>0.02137643445420287</v>
+        <v>0.02252046624741861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H10">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J10">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>6324.65095741028</v>
+        <v>6652.826945373523</v>
       </c>
       <c r="R10">
-        <v>6324.65095741028</v>
+        <v>59875.4425083617</v>
       </c>
       <c r="S10">
-        <v>0.02543194590540288</v>
+        <v>0.02146586875607193</v>
       </c>
       <c r="T10">
-        <v>0.02543194590540288</v>
+        <v>0.02572978076607074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.5595654969602</v>
+        <v>78.40049233333333</v>
       </c>
       <c r="H11">
-        <v>74.5595654969602</v>
+        <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.175641432468599</v>
+        <v>0.1554520329654243</v>
       </c>
       <c r="J11">
-        <v>0.175641432468599</v>
+        <v>0.1692236156041445</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>12480.08076429649</v>
+        <v>13269.76121761769</v>
       </c>
       <c r="R11">
-        <v>12480.08076429649</v>
+        <v>79618.56730570611</v>
       </c>
       <c r="S11">
-        <v>0.05018343953365112</v>
+        <v>0.04281592698272142</v>
       </c>
       <c r="T11">
-        <v>0.05018343953365112</v>
+        <v>0.03421383117792206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H12">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I12">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J12">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>60.70478306783954</v>
+        <v>90.58611629181691</v>
       </c>
       <c r="R12">
-        <v>60.70478306783954</v>
+        <v>815.275046626352</v>
       </c>
       <c r="S12">
-        <v>0.0002440989660262074</v>
+        <v>0.0002922832202624257</v>
       </c>
       <c r="T12">
-        <v>0.0002440989660262074</v>
+        <v>0.0003503414310602329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H13">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I13">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J13">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>67.98735391012661</v>
+        <v>96.94019220495333</v>
       </c>
       <c r="R13">
-        <v>67.98735391012661</v>
+        <v>872.46172984458</v>
       </c>
       <c r="S13">
-        <v>0.0002733827872142064</v>
+        <v>0.0003127851453444175</v>
       </c>
       <c r="T13">
-        <v>0.0002733827872142064</v>
+        <v>0.0003749157934415757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H14">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I14">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J14">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>34.97765520771637</v>
+        <v>48.67683746299822</v>
       </c>
       <c r="R14">
-        <v>34.97765520771637</v>
+        <v>438.091537166984</v>
       </c>
       <c r="S14">
-        <v>0.0001406480517471458</v>
+        <v>0.0001570596399126235</v>
       </c>
       <c r="T14">
-        <v>0.0001406480517471458</v>
+        <v>0.0001882574680797269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H15">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I15">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J15">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>41.61357391225643</v>
+        <v>55.61360686536246</v>
       </c>
       <c r="R15">
-        <v>41.61357391225643</v>
+        <v>500.5224617882621</v>
       </c>
       <c r="S15">
-        <v>0.000167331631072386</v>
+        <v>0.0001794416713114466</v>
       </c>
       <c r="T15">
-        <v>0.000167331631072386</v>
+        <v>0.0002150853951268506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.490570943846033</v>
+        <v>0.6553806666666667</v>
       </c>
       <c r="H16">
-        <v>0.490570943846033</v>
+        <v>1.966142</v>
       </c>
       <c r="I16">
-        <v>0.001155647605109807</v>
+        <v>0.001299484913518232</v>
       </c>
       <c r="J16">
-        <v>0.001155647605109807</v>
+        <v>0.001414607009594434</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>82.11374300545327</v>
+        <v>110.927172706187</v>
       </c>
       <c r="R16">
-        <v>82.11374300545327</v>
+        <v>665.5630362371221</v>
       </c>
       <c r="S16">
-        <v>0.0003301861690498619</v>
+        <v>0.0003579152366873183</v>
       </c>
       <c r="T16">
-        <v>0.0003301861690498619</v>
+        <v>0.0002860069218860477</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H17">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I17">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J17">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>69.57387941500993</v>
+        <v>92.79361330367556</v>
       </c>
       <c r="R17">
-        <v>69.57387941500993</v>
+        <v>835.14251973308</v>
       </c>
       <c r="S17">
-        <v>0.0002797623378154076</v>
+        <v>0.0002994058827824439</v>
       </c>
       <c r="T17">
-        <v>0.0002797623378154076</v>
+        <v>0.0003588789166469244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H18">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I18">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J18">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>77.92044915806166</v>
+        <v>99.30253196938332</v>
       </c>
       <c r="R18">
-        <v>77.92044915806166</v>
+        <v>893.7227877244499</v>
       </c>
       <c r="S18">
-        <v>0.0003133245868043827</v>
+        <v>0.0003204074201693727</v>
       </c>
       <c r="T18">
-        <v>0.0003133245868043827</v>
+        <v>0.0003840521327350581</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H19">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I19">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J19">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>40.08796412173821</v>
+        <v>49.86304543442888</v>
       </c>
       <c r="R19">
-        <v>40.08796412173821</v>
+        <v>448.76740890986</v>
       </c>
       <c r="S19">
-        <v>0.0001611970276094466</v>
+        <v>0.0001608870331157256</v>
       </c>
       <c r="T19">
-        <v>0.0001611970276094466</v>
+        <v>0.0001928451225157259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H20">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I20">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J20">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>47.69340449109971</v>
+        <v>56.96885727237279</v>
       </c>
       <c r="R20">
-        <v>47.69340449109971</v>
+        <v>512.719715451355</v>
       </c>
       <c r="S20">
-        <v>0.0001917791339363969</v>
+        <v>0.0001838144932121767</v>
       </c>
       <c r="T20">
-        <v>0.0001917791339363969</v>
+        <v>0.0002203268204850967</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.562244389433187</v>
+        <v>0.6713516666666667</v>
       </c>
       <c r="H21">
-        <v>0.562244389433187</v>
+        <v>2.014055</v>
       </c>
       <c r="I21">
-        <v>0.001324490148235963</v>
+        <v>0.001331152117952804</v>
       </c>
       <c r="J21">
-        <v>0.001324490148235963</v>
+        <v>0.001449079629400479</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>94.11073337980787</v>
+        <v>113.6303618074175</v>
       </c>
       <c r="R21">
-        <v>94.11073337980787</v>
+        <v>681.782170844505</v>
       </c>
       <c r="S21">
-        <v>0.0003784270620703292</v>
+        <v>0.0003666372886730851</v>
       </c>
       <c r="T21">
-        <v>0.0003784270620703292</v>
+        <v>0.0002929766370176741</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H22">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I22">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J22">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>15232.84335680273</v>
+        <v>17019.01950318825</v>
       </c>
       <c r="R22">
-        <v>15232.84335680273</v>
+        <v>102114.1170191295</v>
       </c>
       <c r="S22">
-        <v>0.06125252616221998</v>
+        <v>0.05491320336635572</v>
       </c>
       <c r="T22">
-        <v>0.06125252616221998</v>
+        <v>0.04388065847957914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H23">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I23">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J23">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>17060.28190890835</v>
+        <v>18212.80224073317</v>
       </c>
       <c r="R23">
-        <v>17060.28190890835</v>
+        <v>109276.813444399</v>
       </c>
       <c r="S23">
-        <v>0.06860080810150153</v>
+        <v>0.05876503714736574</v>
       </c>
       <c r="T23">
-        <v>0.06860080810150153</v>
+        <v>0.0469586250213774</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H24">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I24">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J24">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>8777.053731861088</v>
+        <v>9145.243002443716</v>
       </c>
       <c r="R24">
-        <v>8777.053731861088</v>
+        <v>54871.4580146623</v>
       </c>
       <c r="S24">
-        <v>0.03529326080136845</v>
+        <v>0.02950784495745216</v>
       </c>
       <c r="T24">
-        <v>0.03529326080136845</v>
+        <v>0.02357945972315363</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H25">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I25">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J25">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>10442.22581627117</v>
+        <v>10448.50026283497</v>
       </c>
       <c r="R25">
-        <v>10442.22581627117</v>
+        <v>62691.00157700979</v>
       </c>
       <c r="S25">
-        <v>0.04198905581979336</v>
+        <v>0.03371290688626289</v>
       </c>
       <c r="T25">
-        <v>0.04198905581979336</v>
+        <v>0.02693968777527774</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>123.100519684823</v>
+        <v>123.130749</v>
       </c>
       <c r="H26">
-        <v>123.100519684823</v>
+        <v>246.261498</v>
       </c>
       <c r="I26">
-        <v>0.2899903113833569</v>
+        <v>0.2441429215932014</v>
       </c>
       <c r="J26">
-        <v>0.2899903113833569</v>
+        <v>0.1771811198092638</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>20605.0614371686</v>
+        <v>20840.62981173053</v>
       </c>
       <c r="R26">
-        <v>20605.0614371686</v>
+        <v>83362.51924692214</v>
       </c>
       <c r="S26">
-        <v>0.08285466049847361</v>
+        <v>0.06724392923576496</v>
       </c>
       <c r="T26">
-        <v>0.08285466049847361</v>
+        <v>0.03582268880987594</v>
       </c>
     </row>
   </sheetData>
